--- a/biology/Zoologie/Griswoldella_aculifera/Griswoldella_aculifera.xlsx
+++ b/biology/Zoologie/Griswoldella_aculifera/Griswoldella_aculifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Griswoldella aculifera, unique représentant du genre Griswoldella, est une espèce d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Griswoldella aculifera, unique représentant du genre Griswoldella, est une espèce d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Haddad en 2021 mesure 5,00 mm et la femelle 5,10 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Haddad en 2021 mesure 5,00 mm et la femelle 5,10 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ceto aculifera par Strand en 1916. Elle est placée dans le genre Griswoldella par Haddad en 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ceto aculifera par Strand en 1916. Elle est placée dans le genre Griswoldella par Haddad en 2021.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Charles Edward Griswold[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Charles Edward Griswold.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Strand, 1916 : « Systematische-faunistische Studien über paläarktische, afrikanische und amerikanische Spinnen des Senckenbergischen Museums. » Archiv für Naturgeschichte, sér. A, vol. 81, no 9, p. 1-153 (texte intégral).
 Haddad, 2021 : « Griswoldella gen. nov., a new castianeirine spider genus from Madagascar (Araneae: Corinnidae). » Arachnology, vol. 18, no 8, p. 859-866.</t>
